--- a/lib/calib_formulas.xlsx
+++ b/lib/calib_formulas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levy\Documents\Projects\arm-e\lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levy1\Documents\Projects\ACE\arm-e\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30052F9C-86F3-44CE-B8E8-FDD84F13E598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402D76AA-3EA5-4818-87F9-DC628AE16B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE14766D-22F1-4F8F-BA23-3DB7C2621B11}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EE14766D-22F1-4F8F-BA23-3DB7C2621B11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -49,8 +60,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,8 +97,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -100,7 +120,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -514,7 +534,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -914,7 +934,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1109,19 +1129,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1833</c:v>
+                  <c:v>1853</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1623</c:v>
+                  <c:v>1591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1413</c:v>
+                  <c:v>1376</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1173</c:v>
+                  <c:v>1151</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>963</c:v>
+                  <c:v>896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1323,7 +1343,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1738,7 +1758,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2153,7 +2173,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2261,50 +2281,16 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="3"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.17791251093613297"/>
-                  <c:y val="9.1040390784485267E-2"/>
+                  <c:x val="-5.4542869641294837E-3"/>
+                  <c:y val="0.10005477576172543"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
-                      <a:t>y = -17.586x</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1200" baseline="30000"/>
-                      <a:t>2</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
-                      <a:t> - 602.83x + 1834.7</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US" sz="1200"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2366,19 +2352,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1833</c:v>
+                  <c:v>1853</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1623</c:v>
+                  <c:v>1591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1413</c:v>
+                  <c:v>1376</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1173</c:v>
+                  <c:v>1151</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>963</c:v>
+                  <c:v>896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6062,15 +6048,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>90487</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>44767</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>128587</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>82867</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6098,15 +6084,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>176212</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>160972</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>465772</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6135,7 +6121,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6433,19 +6419,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9EA03C-A2B7-4322-B601-0D15041E9B17}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -6456,7 +6442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6471,7 +6457,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>90</v>
       </c>
@@ -6483,7 +6469,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>180</v>
       </c>
@@ -6495,7 +6481,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -6506,11 +6492,11 @@
         <f t="shared" si="0"/>
         <v>1.5707963267948966</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>1442</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>140</v>
       </c>
@@ -6522,7 +6508,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>160</v>
       </c>
@@ -6534,7 +6520,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -6546,10 +6532,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1833</v>
+        <v>1853</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>20</v>
       </c>
@@ -6558,10 +6544,10 @@
         <v>0.3490658503988659</v>
       </c>
       <c r="D11">
-        <v>1623</v>
+        <v>1591</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>40</v>
       </c>
@@ -6570,10 +6556,10 @@
         <v>0.69813170079773179</v>
       </c>
       <c r="D12">
-        <v>1413</v>
+        <v>1376</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>60</v>
       </c>
@@ -6582,10 +6568,10 @@
         <v>1.0471975511965976</v>
       </c>
       <c r="D13">
-        <v>1173</v>
+        <v>1151</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>80</v>
       </c>
@@ -6594,11 +6580,12 @@
         <v>1.3962634015954636</v>
       </c>
       <c r="D14">
-        <v>963</v>
+        <v>896</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>